--- a/docs/简评语法与规则总结.xlsx
+++ b/docs/简评语法与规则总结.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>阶段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>little X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态标识（常用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NERD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LUL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NEP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,9 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Long in the groove</t>
-  </si>
-  <si>
     <t>Overshoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,19 +216,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fouled deck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NESA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Not Enough Strait away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a lot X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a little X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Fouled up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Enough Strait Away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long In the Groove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angling Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landed Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landed Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lined Up Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lined Up Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Ball Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drifted Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drifted Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flat glideslope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly Up through the glideslope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly Down through the glideslope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触甲板时飞机中线位于着陆区中线左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下滑道下方不正确位置穿过下滑道进入下滑道上方不正确位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下滑道上方不正确位置穿过下滑道进入下滑道下方不正确位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降率增加 超过下滑道下降率 通常只用在IC/AR阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触甲板时飞机中线位于着陆区中线右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束转弯时飞机处于下滑道右侧 通常只用在X阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五边距离过长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有Call the Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于下滑道上方不正确位置 且保持于上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于下滑道下方不正确位置 且保持于下方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于下滑道左侧不正确位置 且保持于左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于下滑道右侧不正确位置 且保持于右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机攻角持续高于标准攻角 但下滑道角度正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机攻角持续低于标准攻角 但下滑道角度正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下滑道过于平缓 通常跟在LO/H后 通常只用在AR阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降率减小 小于下滑道下降率 通常只用在IC/AR阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrap Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚转率过高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下滑道中间正确位置或右侧不正确位置进入下滑道左侧不正确位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下滑道中间正确位置或左侧不正确位置进入下滑道右侧不正确位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下滑道横向路径不够直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landed Left Wing Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landed Right Wing Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触甲板时飞机有向左坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触甲板时飞机有向右坡度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提供足够的动力 通常导致本阶段或后续阶段过低/过慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供了太多的动力 通常导致本阶段或后续阶段过高/过快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误标识（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X阶段时从左/右以较慢速率靠近下滑道中线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,18 +477,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -352,21 +546,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,335 +843,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="68" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="93.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="I9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I22" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I25" s="1" t="s">
-        <v>63</v>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/简评语法与规则总结.xlsx
+++ b/docs/简评语法与规则总结.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>阶段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,14 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wrap Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚转率过高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从下滑道中间正确位置或右侧不正确位置进入下滑道左侧不正确位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +445,38 @@
   </si>
   <si>
     <t>X阶段时从左/右以较慢速率靠近下滑道中线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapped Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU&amp;W Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转五边时坡度太大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G&amp;S Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G&amp;S Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -532,13 +556,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +622,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +916,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -857,47 +927,50 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="32.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="68" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="93.125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -918,6 +991,9 @@
       <c r="G3" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -938,6 +1014,9 @@
       <c r="G4" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -958,6 +1037,9 @@
       <c r="G5" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -978,6 +1060,9 @@
       <c r="G6" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -998,6 +1083,9 @@
       <c r="G7" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1017,6 +1105,9 @@
       </c>
       <c r="G8" s="3" t="s">
         <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1032,13 +1123,16 @@
       <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1048,15 +1142,18 @@
       <c r="G10" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1067,6 +1164,9 @@
       </c>
       <c r="G11" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1088,6 +1188,9 @@
       <c r="G12" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="H12" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -1107,7 +1210,10 @@
         <v>67</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1128,7 +1234,10 @@
         <v>69</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1145,6 +1254,9 @@
       <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -1160,34 +1272,43 @@
       <c r="G16" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1197,8 +1318,11 @@
       <c r="G19" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1206,10 +1330,13 @@
         <v>59</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1219,8 +1346,11 @@
       <c r="G21" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="3" t="s">
         <v>50</v>
       </c>
@@ -1228,10 +1358,13 @@
         <v>57</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1239,10 +1372,13 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1250,10 +1386,13 @@
         <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
@@ -1263,8 +1402,11 @@
       <c r="G25" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="3" t="s">
         <v>64</v>
       </c>
@@ -1274,8 +1416,11 @@
       <c r="G26" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="3" t="s">
         <v>37</v>
       </c>
@@ -1283,23 +1428,29 @@
         <v>54</v>
       </c>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>96</v>
+        <v>113</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
